--- a/CRUDCreateCode/data/input/models/Organisation.xlsx
+++ b/CRUDCreateCode/data/input/models/Organisation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tkax/dev/aimonetize/Backend/DjangoBasic/CRUDCreateCode/data/input/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C1F351-F611-4B46-8D54-649023AD9D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6399DF-F243-6B48-B0A9-C60503B0EA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="760" windowWidth="23440" windowHeight="18880" xr2:uid="{43DD2820-FE61-F645-B31F-194723807C3A}"/>
+    <workbookView xWindow="4440" yWindow="760" windowWidth="23440" windowHeight="18880" activeTab="3" xr2:uid="{43DD2820-FE61-F645-B31F-194723807C3A}"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,9 @@
     <sheet name="forms" sheetId="6" r:id="rId11"/>
     <sheet name="html" sheetId="5" r:id="rId12"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">model!$B$1:$Z$36</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="154">
   <si>
     <t>Variable</t>
   </si>
@@ -77,24 +80,6 @@
   </si>
   <si>
     <t>ForeignKey</t>
-  </si>
-  <si>
-    <t>basic</t>
-  </si>
-  <si>
-    <t>"html"</t>
-  </si>
-  <si>
-    <t>create</t>
-  </si>
-  <si>
-    <t>delete</t>
-  </si>
-  <si>
-    <t>retrieve</t>
-  </si>
-  <si>
-    <t>update</t>
   </si>
   <si>
     <t>functions</t>
@@ -511,6 +496,33 @@
   </si>
   <si>
     <t>"History"</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>models.DateTimeField</t>
+  </si>
+  <si>
+    <t>models.DateTimeField(auto_now_add=True)</t>
+  </si>
+  <si>
+    <t>"created_at"</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>models.DateTimeField(auto_now=True)</t>
+  </si>
+  <si>
+    <t>"updated_at"</t>
+  </si>
+  <si>
+    <t>app_name</t>
+  </si>
+  <si>
+    <t>Organisation</t>
   </si>
 </sst>
 </file>
@@ -887,674 +899,1035 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E15A4BF7-DFDE-D24F-85FE-657339D228CC}">
-  <dimension ref="A1:Y65"/>
+  <dimension ref="A1:Z36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" customWidth="1"/>
-    <col min="5" max="5" width="32.1640625" customWidth="1"/>
-    <col min="6" max="6" width="40.33203125" customWidth="1"/>
-    <col min="7" max="12" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="6" max="6" width="32.1640625" customWidth="1"/>
+    <col min="7" max="7" width="40.33203125" customWidth="1"/>
+    <col min="8" max="13" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>31</v>
-      </c>
       <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" t="s">
+        <v>8</v>
+      </c>
+      <c r="X1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="Z1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T1" t="s">
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
         <v>27</v>
       </c>
-      <c r="U1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V1" t="s">
-        <v>8</v>
-      </c>
-      <c r="W1" t="s">
-        <v>24</v>
-      </c>
-      <c r="X1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>127</v>
-      </c>
       <c r="D2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="V2" s="2">
+        <v>1</v>
+      </c>
       <c r="W2" s="2"/>
-      <c r="Y2" s="2"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>153</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="Y3" s="2"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="R3" s="2"/>
+      <c r="V3" s="2">
+        <v>1</v>
+      </c>
+      <c r="X3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>153</v>
       </c>
       <c r="B4" t="s">
         <v>61</v>
       </c>
       <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="V4" s="2">
+        <v>1</v>
+      </c>
+      <c r="X4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" t="s">
+        <v>63</v>
+      </c>
+      <c r="V5" s="2">
+        <v>1</v>
+      </c>
+      <c r="X5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" t="s">
+        <v>65</v>
+      </c>
+      <c r="V6" s="2">
+        <v>1</v>
+      </c>
+      <c r="X6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="V7" s="2">
+        <v>1</v>
+      </c>
+      <c r="X7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="V8" s="2">
+        <v>1</v>
+      </c>
+      <c r="X8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="V9" s="2">
+        <v>1</v>
+      </c>
+      <c r="X9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" t="s">
+        <v>123</v>
+      </c>
+      <c r="S10" s="2"/>
+      <c r="V10" s="2">
+        <v>1</v>
+      </c>
+      <c r="X10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" t="s">
+        <v>124</v>
+      </c>
+      <c r="V11" s="2">
+        <v>1</v>
+      </c>
+      <c r="X11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" t="s">
+        <v>125</v>
+      </c>
+      <c r="V12" s="2">
+        <v>1</v>
+      </c>
+      <c r="X12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" t="s">
         <v>127</v>
       </c>
-      <c r="D4" t="s">
-        <v>62</v>
-      </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="Y4" s="2"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="T13" s="2"/>
+      <c r="V13" s="2">
+        <v>1</v>
+      </c>
+      <c r="X13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B14" t="s">
         <v>128</v>
       </c>
-      <c r="C5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" t="s">
-        <v>69</v>
-      </c>
-      <c r="U5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="Y5" s="2"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" t="s">
-        <v>71</v>
-      </c>
-      <c r="U6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="Y6" s="2"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" t="s">
-        <v>73</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="Y7" s="2"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8" t="s">
-        <v>43</v>
-      </c>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="Y8" s="2"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D9" t="s">
-        <v>43</v>
-      </c>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="Y9" s="2"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" t="s">
         <v>129</v>
       </c>
-      <c r="R10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="Y10" s="2"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>127</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="V14" s="2">
+        <v>1</v>
+      </c>
+      <c r="X14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" t="s">
+        <v>144</v>
+      </c>
+      <c r="V15" s="2">
+        <v>1</v>
+      </c>
+      <c r="X15" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+      <c r="V16" s="2">
+        <v>1</v>
+      </c>
+      <c r="X16" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>153</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" t="s">
+        <v>67</v>
+      </c>
+      <c r="V17" s="2">
+        <v>1</v>
+      </c>
+      <c r="X17" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>153</v>
+      </c>
+      <c r="B18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" t="s">
+        <v>143</v>
+      </c>
+      <c r="F18" t="s">
+        <v>144</v>
+      </c>
+      <c r="V18" s="2">
+        <v>1</v>
+      </c>
+      <c r="X18" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="V19" s="2">
+        <v>1</v>
+      </c>
+      <c r="X19" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>153</v>
+      </c>
+      <c r="B20" t="s">
         <v>60</v>
       </c>
-      <c r="C13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D13" t="s">
-        <v>133</v>
-      </c>
-      <c r="S13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="Y13" s="2"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>134</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" t="s">
-        <v>132</v>
-      </c>
-      <c r="D14" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>147</v>
-      </c>
-      <c r="B15" t="s">
-        <v>148</v>
-      </c>
-      <c r="C15" t="s">
-        <v>132</v>
-      </c>
-      <c r="D15" t="s">
-        <v>149</v>
-      </c>
-      <c r="E15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" t="s">
-        <v>136</v>
-      </c>
-      <c r="D17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>147</v>
-      </c>
-      <c r="B18" t="s">
-        <v>148</v>
-      </c>
-      <c r="C18" t="s">
-        <v>136</v>
-      </c>
-      <c r="D18" t="s">
-        <v>149</v>
-      </c>
-      <c r="E18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" t="s">
-        <v>137</v>
-      </c>
-      <c r="D19" t="s">
-        <v>65</v>
-      </c>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="Y19" s="2"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
       <c r="C20" t="s">
-        <v>137</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
-      </c>
-      <c r="O20" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
       <c r="P20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="Y20" s="2"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Q20" s="2"/>
+      <c r="V20" s="2">
+        <v>1</v>
+      </c>
+      <c r="X20" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>153</v>
       </c>
       <c r="B21" t="s">
         <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" t="s">
+        <v>56</v>
+      </c>
+      <c r="V21" s="2">
+        <v>1</v>
+      </c>
+      <c r="X21" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>153</v>
+      </c>
+      <c r="B22" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="C22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" t="s">
+        <v>63</v>
+      </c>
+      <c r="V22" s="2">
+        <v>1</v>
+      </c>
+      <c r="X22" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>153</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" t="s">
+        <v>65</v>
+      </c>
+      <c r="V23" s="2">
+        <v>1</v>
+      </c>
+      <c r="X23" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" t="s">
+        <v>67</v>
+      </c>
+      <c r="V24" s="2">
+        <v>1</v>
+      </c>
+      <c r="X24" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B25" t="s">
         <v>68</v>
       </c>
-      <c r="B22" t="s">
-        <v>128</v>
-      </c>
-      <c r="C22" t="s">
-        <v>137</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>131</v>
+      </c>
+      <c r="E25" t="s">
+        <v>37</v>
+      </c>
+      <c r="V25" s="2">
+        <v>1</v>
+      </c>
+      <c r="X25" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>153</v>
+      </c>
+      <c r="B26" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>131</v>
+      </c>
+      <c r="E26" t="s">
+        <v>37</v>
+      </c>
+      <c r="V26" s="2">
+        <v>1</v>
+      </c>
+      <c r="X26" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>153</v>
+      </c>
+      <c r="B27" t="s">
         <v>70</v>
       </c>
-      <c r="B23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" t="s">
-        <v>137</v>
-      </c>
-      <c r="D23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" t="s">
+        <v>131</v>
+      </c>
+      <c r="E27" t="s">
+        <v>123</v>
+      </c>
+      <c r="V27" s="2">
+        <v>1</v>
+      </c>
+      <c r="X27" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" t="s">
         <v>72</v>
       </c>
-      <c r="B24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" t="s">
-        <v>137</v>
-      </c>
-      <c r="D24" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" t="s">
-        <v>137</v>
-      </c>
-      <c r="D25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" t="s">
-        <v>137</v>
-      </c>
-      <c r="D26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" t="s">
-        <v>137</v>
-      </c>
-      <c r="D27" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" t="s">
-        <v>34</v>
-      </c>
       <c r="C28" t="s">
-        <v>137</v>
+        <v>28</v>
       </c>
       <c r="D28" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>125</v>
+      </c>
+      <c r="V28" s="2">
+        <v>1</v>
+      </c>
+      <c r="X28" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29" t="s">
         <v>3</v>
       </c>
-      <c r="B29" t="s">
-        <v>33</v>
-      </c>
       <c r="C29" t="s">
-        <v>138</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+      <c r="E29" t="s">
+        <v>37</v>
+      </c>
+      <c r="V29" s="2">
+        <v>1</v>
+      </c>
+      <c r="X29" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>153</v>
       </c>
       <c r="B30" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+      <c r="E30" t="s">
+        <v>63</v>
+      </c>
+      <c r="V30" s="2">
+        <v>1</v>
+      </c>
+      <c r="X30" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="C31" t="s">
-        <v>138</v>
+        <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>43</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="E31" t="s">
+        <v>37</v>
+      </c>
       <c r="P31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="W31" s="2"/>
-      <c r="Y31" s="2"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Q31" s="2"/>
+      <c r="V31" s="2">
+        <v>1</v>
+      </c>
+      <c r="X31" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="C32" t="s">
-        <v>138</v>
+        <v>27</v>
       </c>
       <c r="D32" t="s">
-        <v>43</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="E32" t="s">
+        <v>37</v>
+      </c>
       <c r="P32" s="2"/>
-      <c r="U32" s="2"/>
-      <c r="W32" s="2"/>
-      <c r="Y32" s="2"/>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Q32" s="2"/>
+      <c r="V32" s="2">
+        <v>1</v>
+      </c>
+      <c r="X32" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="C33" t="s">
-        <v>138</v>
+        <v>28</v>
       </c>
       <c r="D33" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+      <c r="E33" t="s">
+        <v>125</v>
+      </c>
+      <c r="V33" s="2">
+        <v>1</v>
+      </c>
+      <c r="X33" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>153</v>
+      </c>
+      <c r="B34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" t="s">
+        <v>132</v>
+      </c>
+      <c r="E34" t="s">
+        <v>143</v>
+      </c>
+      <c r="F34" t="s">
+        <v>144</v>
+      </c>
+      <c r="V34" s="2">
+        <v>1</v>
+      </c>
+      <c r="X34" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>153</v>
+      </c>
+      <c r="B35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" t="s">
+        <v>132</v>
+      </c>
+      <c r="E35" t="s">
         <v>147</v>
       </c>
-      <c r="B34" t="s">
+      <c r="F35" t="s">
         <v>148</v>
       </c>
-      <c r="C34" t="s">
-        <v>138</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="X35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>153</v>
+      </c>
+      <c r="B36" t="s">
         <v>149</v>
       </c>
-      <c r="E34" t="s">
+      <c r="C36" t="s">
+        <v>146</v>
+      </c>
+      <c r="D36" t="s">
+        <v>132</v>
+      </c>
+      <c r="E36" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="U45" s="2"/>
-      <c r="W45" s="2"/>
-      <c r="Y45" s="2"/>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="U46" s="2"/>
-      <c r="W46" s="2"/>
-      <c r="Y46" s="2"/>
-    </row>
-    <row r="55" spans="15:25" x14ac:dyDescent="0.2">
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-      <c r="U55" s="2"/>
-      <c r="W55" s="2"/>
-      <c r="Y55" s="2"/>
-    </row>
-    <row r="56" spans="15:25" x14ac:dyDescent="0.2">
-      <c r="O56" s="2"/>
-      <c r="P56" s="2"/>
-      <c r="U56" s="2"/>
-      <c r="W56" s="2"/>
-      <c r="Y56" s="2"/>
-    </row>
-    <row r="64" spans="15:25" x14ac:dyDescent="0.2">
-      <c r="O64" s="2"/>
-      <c r="P64" s="2"/>
-      <c r="U64" s="2"/>
-      <c r="W64" s="2"/>
-      <c r="Y64" s="2"/>
-    </row>
-    <row r="65" spans="15:25" x14ac:dyDescent="0.2">
-      <c r="O65" s="2"/>
-      <c r="P65" s="2"/>
-      <c r="U65" s="2"/>
-      <c r="W65" s="2"/>
-      <c r="Y65" s="2"/>
+      <c r="F36" t="s">
+        <v>151</v>
+      </c>
+      <c r="X36" s="2">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1564,18 +1937,23 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9DE9946-B381-0247-B0AA-E67A7DD58800}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1585,18 +1963,23 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D736743-F982-B748-AF4D-941EEF6BA5FF}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1606,52 +1989,23 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EF3DF2-641B-5E44-AA75-D6FFD80FBD8B}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
         <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1661,20 +2015,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B198E01-8FA9-8A47-890E-49AE9CB3CBEB}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>32</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>152</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1684,20 +2041,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A05537D-FF86-1F48-A52E-38FF3B0924DD}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>32</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>152</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1707,143 +2067,170 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0437A48-3006-3A4F-8E27-223B720E6D4E}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="87" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>137</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B27" s="1"/>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1881,35 +2268,35 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="G4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="P4"/>
       <c r="Q4"/>
       <c r="S4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="T4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="U4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="V4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
@@ -1930,7 +2317,7 @@
         <v>models.CharField(max_length=100)</v>
       </c>
       <c r="K5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="P5"/>
       <c r="Q5"/>
@@ -1969,7 +2356,7 @@
         <v>models.EmailField(unique=True)</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="P6"/>
       <c r="Q6"/>
@@ -2008,7 +2395,7 @@
         <v>models.CharField(max_length=100)</v>
       </c>
       <c r="K7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="P7"/>
       <c r="Q7"/>
@@ -2047,7 +2434,7 @@
         <v>models.CharField(max_length=100)</v>
       </c>
       <c r="K8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="P8"/>
       <c r="Q8"/>
@@ -2086,13 +2473,13 @@
         <v>models.ForeignKey(Organization,on_delete=models.CASCADE)</v>
       </c>
       <c r="K9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="O9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="P9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="Q9"/>
       <c r="S9">
@@ -2130,7 +2517,7 @@
         <v>models.CharField(max_length=200)</v>
       </c>
       <c r="K10" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="S10">
         <f t="shared" si="3"/>
@@ -2167,7 +2554,7 @@
         <v>models.CharField(max_length=100)</v>
       </c>
       <c r="K11" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="S11">
         <f t="shared" si="3"/>
@@ -2204,7 +2591,7 @@
         <v>models.CharField(max_length=100)</v>
       </c>
       <c r="K12" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="S12">
         <f t="shared" si="3"/>
@@ -2241,7 +2628,7 @@
         <v>models.ForeignKey(Employer,on_delete=models.CASCADE)</v>
       </c>
       <c r="K13" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="S13">
         <f>FIND("=",K13)</f>
@@ -2278,7 +2665,7 @@
         <v>models.ForeignKey(Organization,on_delete=models.CASCADE)</v>
       </c>
       <c r="K14" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="S14">
         <f t="shared" ref="S14:S24" si="11">FIND("=",K14)</f>
@@ -2315,7 +2702,7 @@
         <v>models.ForeignKey(Organization,on_delete=models.CASCADE)</v>
       </c>
       <c r="K15" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="S15">
         <f t="shared" si="11"/>
@@ -2344,7 +2731,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D16" t="e">
         <f t="shared" si="10"/>
@@ -2377,7 +2764,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D17" t="e">
         <f t="shared" si="10"/>
@@ -2410,7 +2797,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D18" t="e">
         <f t="shared" si="10"/>
@@ -2443,7 +2830,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D19" t="e">
         <f t="shared" si="10"/>
@@ -2476,7 +2863,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D20" t="e">
         <f t="shared" si="10"/>
@@ -2509,7 +2896,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D21" t="e">
         <f t="shared" si="10"/>
@@ -2542,7 +2929,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D22" t="e">
         <f t="shared" si="10"/>
@@ -2603,580 +2990,580 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="E32" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E33" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E34" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E35" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E36" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E37" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E38" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E39" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E40" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E41" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E42" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E43" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G43" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H43" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I43" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="J43" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E45" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="5:11" x14ac:dyDescent="0.2">
       <c r="I46" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J46" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K46" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E51" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F51" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G51" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H51" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C52" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D52" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B54" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E55" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E56" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E57" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F57" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G57" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H57" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I57" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="J57" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K57" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="L57" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="M57" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="N57" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="P57" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E59" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F59" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I60" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J60" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B62" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E63" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E64" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="E65" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F65" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G65" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H65" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I65" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="J65" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="E67" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F67" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="I68" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J68" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B70" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="E71" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="E72" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="E73" t="s">
+        <v>103</v>
+      </c>
+      <c r="G73" t="s">
+        <v>42</v>
+      </c>
+      <c r="H73" t="s">
+        <v>104</v>
+      </c>
+      <c r="I73" t="s">
+        <v>105</v>
+      </c>
+      <c r="J73" t="s">
+        <v>106</v>
+      </c>
+      <c r="K73" t="s">
+        <v>107</v>
+      </c>
+      <c r="L73" t="s">
+        <v>36</v>
+      </c>
+      <c r="M73" t="s">
+        <v>108</v>
+      </c>
+      <c r="N73" t="s">
         <v>109</v>
       </c>
-      <c r="G73" t="s">
-        <v>48</v>
-      </c>
-      <c r="H73" t="s">
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q73" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="I73" t="s">
+      <c r="R73" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="J73" t="s">
+      <c r="S73" t="s">
         <v>112</v>
       </c>
-      <c r="K73" t="s">
+      <c r="T73" t="s">
         <v>113</v>
-      </c>
-      <c r="L73" t="s">
-        <v>42</v>
-      </c>
-      <c r="M73" t="s">
-        <v>114</v>
-      </c>
-      <c r="N73" t="s">
-        <v>115</v>
-      </c>
-      <c r="O73" t="s">
-        <v>59</v>
-      </c>
-      <c r="P73" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q73" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="R73" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="S73" t="s">
-        <v>118</v>
-      </c>
-      <c r="T73" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="E74" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="E75" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="E76" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F76" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G76" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H76" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I76" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="J76" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="K76" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="L76" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="M76" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="N76" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="E78" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F78" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="I79" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J79" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B81" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E82" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E83" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E84" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E85" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E86" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E87" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E88" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E89" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E90" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E91" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E92" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E93" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F93" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G93" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H93" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I93" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="J93" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E95" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F95" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I96" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J96" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K96" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B98" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E99" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E100" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E101" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E102" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E103" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E104" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E105" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E106" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E107" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E108" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E109" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F109" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G109" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H109" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I109" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="J109" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E111" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F111" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I112" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J112" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K112" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3186,20 +3573,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C21CEC97-FCED-B744-B683-79B04E4945C6}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>32</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>152</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3209,27 +3599,30 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC848DF8-2DCC-D442-88F0-8D70EA2B49CF}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="122.33203125" customWidth="1"/>
+    <col min="3" max="3" width="122.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B2" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3238,26 +3631,31 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B5DCB6D-D252-554A-AA6D-EF7613AF9735}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3266,18 +3664,23 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCCD04C-73D9-ED48-83F8-2B0724B93DB6}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/CRUDCreateCode/data/input/models/Organisation.xlsx
+++ b/CRUDCreateCode/data/input/models/Organisation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tkax/dev/aimonetize/Backend/DjangoBasic/CRUDCreateCode/data/input/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6399DF-F243-6B48-B0A9-C60503B0EA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28BF48C-540A-5149-812F-60C164359FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="760" windowWidth="23440" windowHeight="18880" activeTab="3" xr2:uid="{43DD2820-FE61-F645-B31F-194723807C3A}"/>
+    <workbookView xWindow="4440" yWindow="760" windowWidth="23440" windowHeight="18880" xr2:uid="{43DD2820-FE61-F645-B31F-194723807C3A}"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="html" sheetId="5" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">model!$B$1:$Z$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">model!$B$1:$AB$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="156">
   <si>
     <t>Variable</t>
   </si>
@@ -268,9 +268,6 @@
     <t>manager</t>
   </si>
   <si>
-    <t>organization</t>
-  </si>
-  <si>
     <t>Add</t>
   </si>
   <si>
@@ -421,15 +418,9 @@
     <t>models.EmailField</t>
   </si>
   <si>
-    <t>models.ForeignKey(Employer,on_delete=models.CASCADE)</t>
-  </si>
-  <si>
     <t>models.ForeignKey('Manager',on_delete=models.SET_NULL,null=True,related_name='managed_employees')</t>
   </si>
   <si>
-    <t>models.ForeignKey(Organization,on_delete=models.CASCADE)</t>
-  </si>
-  <si>
     <t>Individual</t>
   </si>
   <si>
@@ -440,9 +431,6 @@
   </si>
   <si>
     <t>models.ForeignKey('Employee',on_delete=models.CASCADE)</t>
-  </si>
-  <si>
-    <t>Organization</t>
   </si>
   <si>
     <t>Manager</t>
@@ -523,6 +511,24 @@
   </si>
   <si>
     <t>Organisation</t>
+  </si>
+  <si>
+    <t>models.ForeignKey('Organisation',on_delete=models.CASCADE)</t>
+  </si>
+  <si>
+    <t>models.ForeignKey('Employer',on_delete=models.CASCADE)</t>
+  </si>
+  <si>
+    <t>feker_function</t>
+  </si>
+  <si>
+    <t>faker_type</t>
+  </si>
+  <si>
+    <t>username()</t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
 </sst>
 </file>
@@ -899,10 +905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E15A4BF7-DFDE-D24F-85FE-657339D228CC}">
-  <dimension ref="A1:Z36"/>
+  <dimension ref="A1:AB42"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -911,14 +917,14 @@
     <col min="3" max="3" width="13.1640625" customWidth="1"/>
     <col min="4" max="4" width="19.83203125" customWidth="1"/>
     <col min="5" max="5" width="26.6640625" customWidth="1"/>
-    <col min="6" max="6" width="32.1640625" customWidth="1"/>
-    <col min="7" max="7" width="40.33203125" customWidth="1"/>
-    <col min="8" max="13" width="11.1640625" customWidth="1"/>
+    <col min="6" max="8" width="32.1640625" customWidth="1"/>
+    <col min="9" max="9" width="40.33203125" customWidth="1"/>
+    <col min="10" max="15" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -936,69 +942,75 @@
         <v>25</v>
       </c>
       <c r="G1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>4</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>7</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>23</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>24</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>8</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -1007,26 +1019,31 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E2" t="s">
         <v>59</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="V2" s="2">
-        <v>1</v>
-      </c>
-      <c r="W2" s="2"/>
+      <c r="G2" s="2" t="str">
+        <f>B2&amp;"()"</f>
+        <v>first_name()</v>
+      </c>
+      <c r="H2" s="2"/>
       <c r="X2" s="2">
         <v>1</v>
       </c>
+      <c r="Y2" s="2"/>
       <c r="Z2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s">
         <v>60</v>
@@ -1035,25 +1052,29 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
         <v>59</v>
       </c>
-      <c r="R3" s="2"/>
-      <c r="V3" s="2">
-        <v>1</v>
-      </c>
+      <c r="G3" s="2" t="str">
+        <f t="shared" ref="G3:G40" si="0">B3&amp;"()"</f>
+        <v>surname()</v>
+      </c>
+      <c r="T3" s="2"/>
       <c r="X3" s="2">
         <v>1</v>
       </c>
       <c r="Z3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B4" t="s">
         <v>61</v>
@@ -1062,41 +1083,46 @@
         <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E4" t="s">
         <v>56</v>
       </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="V4" s="2">
-        <v>1</v>
-      </c>
+      <c r="G4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>age()</v>
+      </c>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
       <c r="X4" s="2">
         <v>1</v>
       </c>
       <c r="Z4" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s">
         <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E5" t="s">
         <v>63</v>
       </c>
-      <c r="V5" s="2">
-        <v>1</v>
+      <c r="G5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>email()</v>
       </c>
       <c r="X5" s="2">
         <v>1</v>
@@ -1104,10 +1130,13 @@
       <c r="Z5" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -1116,13 +1145,14 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E6" t="s">
         <v>65</v>
       </c>
-      <c r="V6" s="2">
-        <v>1</v>
+      <c r="G6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>phone()</v>
       </c>
       <c r="X6" s="2">
         <v>1</v>
@@ -1130,10 +1160,13 @@
       <c r="Z6" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s">
         <v>66</v>
@@ -1142,25 +1175,29 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E7" t="s">
         <v>67</v>
       </c>
-      <c r="O7" s="2"/>
-      <c r="V7" s="2">
-        <v>1</v>
-      </c>
+      <c r="G7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>address()</v>
+      </c>
+      <c r="Q7" s="2"/>
       <c r="X7" s="2">
         <v>1</v>
       </c>
       <c r="Z7" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B8" t="s">
         <v>68</v>
@@ -1169,26 +1206,33 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E8" t="s">
         <v>37</v>
       </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="V8" s="2">
-        <v>1</v>
-      </c>
+      <c r="G8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>department()</v>
+      </c>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
       <c r="X8" s="2">
         <v>1</v>
       </c>
       <c r="Z8" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B9" t="s">
         <v>69</v>
@@ -1197,26 +1241,33 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E9" t="s">
         <v>37</v>
       </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="V9" s="2">
-        <v>1</v>
-      </c>
+      <c r="G9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>role()</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
       <c r="X9" s="2">
         <v>1</v>
       </c>
       <c r="Z9" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -1225,25 +1276,29 @@
         <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E10" t="s">
-        <v>123</v>
-      </c>
-      <c r="S10" s="2"/>
-      <c r="V10" s="2">
-        <v>1</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+      <c r="U10" s="2"/>
       <c r="X10" s="2">
         <v>1</v>
       </c>
       <c r="Z10" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -1252,13 +1307,14 @@
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E11" t="s">
-        <v>124</v>
-      </c>
-      <c r="V11" s="2">
-        <v>1</v>
+        <v>122</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" t="s">
+        <v>6</v>
       </c>
       <c r="X11" s="2">
         <v>1</v>
@@ -1266,216 +1322,235 @@
       <c r="Z11" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
+      <c r="X12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F14" t="s">
+        <v>147</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="V15" s="2"/>
+      <c r="X15" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" t="s">
         <v>125</v>
       </c>
-      <c r="V12" s="2">
-        <v>1</v>
-      </c>
-      <c r="X12" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>153</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" t="s">
         <v>126</v>
       </c>
-      <c r="E13" t="s">
-        <v>127</v>
-      </c>
-      <c r="T13" s="2"/>
-      <c r="V13" s="2">
-        <v>1</v>
-      </c>
-      <c r="X13" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>153</v>
-      </c>
-      <c r="B14" t="s">
-        <v>128</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" t="s">
-        <v>126</v>
-      </c>
-      <c r="E14" t="s">
-        <v>129</v>
-      </c>
-      <c r="V14" s="2">
-        <v>1</v>
-      </c>
-      <c r="X14" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>153</v>
-      </c>
-      <c r="B15" t="s">
-        <v>141</v>
-      </c>
-      <c r="C15" t="s">
-        <v>142</v>
-      </c>
-      <c r="D15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E15" t="s">
-        <v>143</v>
-      </c>
-      <c r="F15" t="s">
-        <v>144</v>
-      </c>
-      <c r="V15" s="2">
-        <v>1</v>
-      </c>
-      <c r="X15" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>153</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="G16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>employee()</v>
+      </c>
+      <c r="H16" t="s">
+        <v>6</v>
+      </c>
+      <c r="X16" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" t="s">
+        <v>6</v>
+      </c>
+      <c r="X17" s="2"/>
+      <c r="Z17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="2"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B18" t="s">
         <v>3</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C18" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
-        <v>130</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="D18" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18" t="s">
         <v>37</v>
       </c>
-      <c r="V16" s="2">
-        <v>1</v>
-      </c>
-      <c r="X16" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>153</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="G18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>name()</v>
+      </c>
+      <c r="X18" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B19" t="s">
         <v>66</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>130</v>
-      </c>
-      <c r="E17" t="s">
-        <v>67</v>
-      </c>
-      <c r="V17" s="2">
-        <v>1</v>
-      </c>
-      <c r="X17" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>153</v>
-      </c>
-      <c r="B18" t="s">
-        <v>141</v>
-      </c>
-      <c r="C18" t="s">
-        <v>142</v>
-      </c>
-      <c r="D18" t="s">
-        <v>130</v>
-      </c>
-      <c r="E18" t="s">
-        <v>143</v>
-      </c>
-      <c r="F18" t="s">
-        <v>144</v>
-      </c>
-      <c r="V18" s="2">
-        <v>1</v>
-      </c>
-      <c r="X18" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>153</v>
-      </c>
-      <c r="B19" t="s">
-        <v>58</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
-      </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="V19" s="2">
-        <v>1</v>
+        <v>67</v>
+      </c>
+      <c r="G19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>address()</v>
       </c>
       <c r="X19" s="2">
         <v>1</v>
@@ -1483,79 +1558,86 @@
       <c r="Z19" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>142</v>
       </c>
       <c r="D20" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
-      </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="V20" s="2">
-        <v>1</v>
-      </c>
-      <c r="X20" s="2">
-        <v>1</v>
+        <v>143</v>
+      </c>
+      <c r="F20" t="s">
+        <v>144</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" t="s">
+        <v>155</v>
       </c>
       <c r="Z20" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>142</v>
       </c>
       <c r="D21" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="E21" t="s">
-        <v>56</v>
-      </c>
-      <c r="V21" s="2">
-        <v>1</v>
-      </c>
-      <c r="X21" s="2">
-        <v>1</v>
+        <v>146</v>
+      </c>
+      <c r="F21" t="s">
+        <v>147</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" t="s">
+        <v>155</v>
       </c>
       <c r="Z21" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="C22" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="D22" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
-      </c>
-      <c r="V22" s="2">
-        <v>1</v>
+        <v>139</v>
+      </c>
+      <c r="F22" t="s">
+        <v>140</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" t="s">
+        <v>6</v>
       </c>
       <c r="X22" s="2">
         <v>1</v>
@@ -1563,181 +1645,213 @@
       <c r="Z22" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E23" t="s">
-        <v>65</v>
-      </c>
-      <c r="V23" s="2">
-        <v>1</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>first_name()</v>
+      </c>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
       <c r="X23" s="2">
         <v>1</v>
       </c>
       <c r="Z23" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E24" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>surname()</v>
+      </c>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="X24" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>age()</v>
+      </c>
+      <c r="X25" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>email()</v>
+      </c>
+      <c r="X26" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>phone()</v>
+      </c>
+      <c r="X27" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28" t="s">
         <v>67</v>
       </c>
-      <c r="V24" s="2">
-        <v>1</v>
-      </c>
-      <c r="X24" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>153</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="G28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>address()</v>
+      </c>
+      <c r="X28" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>149</v>
+      </c>
+      <c r="B29" t="s">
         <v>68</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>131</v>
-      </c>
-      <c r="E25" t="s">
-        <v>37</v>
-      </c>
-      <c r="V25" s="2">
-        <v>1</v>
-      </c>
-      <c r="X25" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z25" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>153</v>
-      </c>
-      <c r="B26" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>131</v>
-      </c>
-      <c r="E26" t="s">
-        <v>37</v>
-      </c>
-      <c r="V26" s="2">
-        <v>1</v>
-      </c>
-      <c r="X26" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z26" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>153</v>
-      </c>
-      <c r="B27" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" t="s">
-        <v>131</v>
-      </c>
-      <c r="E27" t="s">
-        <v>123</v>
-      </c>
-      <c r="V27" s="2">
-        <v>1</v>
-      </c>
-      <c r="X27" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z27" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>153</v>
-      </c>
-      <c r="B28" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" t="s">
-        <v>131</v>
-      </c>
-      <c r="E28" t="s">
-        <v>125</v>
-      </c>
-      <c r="V28" s="2">
-        <v>1</v>
-      </c>
-      <c r="X28" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z28" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>153</v>
-      </c>
-      <c r="B29" t="s">
-        <v>3</v>
       </c>
       <c r="C29" t="s">
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E29" t="s">
         <v>37</v>
       </c>
-      <c r="V29" s="2">
-        <v>1</v>
+      <c r="G29" s="2"/>
+      <c r="H29" t="s">
+        <v>6</v>
       </c>
       <c r="X29" s="2">
         <v>1</v>
@@ -1745,187 +1859,397 @@
       <c r="Z29" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>role()</v>
+      </c>
+      <c r="H30" t="s">
+        <v>6</v>
+      </c>
+      <c r="X30" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>149</v>
+      </c>
+      <c r="B31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" t="s">
+        <v>151</v>
+      </c>
+      <c r="G31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>employer()</v>
+      </c>
+      <c r="H31" t="s">
+        <v>6</v>
+      </c>
+      <c r="X31" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>149</v>
+      </c>
+      <c r="B32" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" t="s">
+        <v>142</v>
+      </c>
+      <c r="D32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" t="s">
+        <v>143</v>
+      </c>
+      <c r="F32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>149</v>
+      </c>
+      <c r="B33" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" t="s">
+        <v>127</v>
+      </c>
+      <c r="E33" t="s">
+        <v>146</v>
+      </c>
+      <c r="F33" t="s">
+        <v>147</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>149</v>
+      </c>
+      <c r="B34" t="s">
+        <v>149</v>
+      </c>
+      <c r="C34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" t="s">
+        <v>127</v>
+      </c>
+      <c r="E34" t="s">
+        <v>150</v>
+      </c>
+      <c r="G34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Organisation()</v>
+      </c>
+      <c r="H34" t="s">
+        <v>6</v>
+      </c>
+      <c r="X34" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>128</v>
+      </c>
+      <c r="E35" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>name()</v>
+      </c>
+      <c r="X35" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>149</v>
+      </c>
+      <c r="B36" t="s">
         <v>62</v>
       </c>
-      <c r="C30" t="s">
-        <v>122</v>
-      </c>
-      <c r="D30" t="s">
-        <v>132</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="C36" t="s">
+        <v>121</v>
+      </c>
+      <c r="D36" t="s">
+        <v>128</v>
+      </c>
+      <c r="E36" t="s">
         <v>63</v>
       </c>
-      <c r="V30" s="2">
-        <v>1</v>
-      </c>
-      <c r="X30" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z30" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>153</v>
-      </c>
-      <c r="B31" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="G36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>email()</v>
+      </c>
+      <c r="X36" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>149</v>
+      </c>
+      <c r="B37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" t="s">
         <v>27</v>
       </c>
-      <c r="D31" t="s">
-        <v>132</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="D37" t="s">
+        <v>128</v>
+      </c>
+      <c r="E37" t="s">
         <v>37</v>
       </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="V31" s="2">
-        <v>1</v>
-      </c>
-      <c r="X31" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z31" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>153</v>
-      </c>
-      <c r="B32" t="s">
-        <v>133</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="G37" s="2"/>
+      <c r="H37" t="s">
+        <v>6</v>
+      </c>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="X37" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z37" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>149</v>
+      </c>
+      <c r="B38" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" t="s">
         <v>27</v>
       </c>
-      <c r="D32" t="s">
-        <v>132</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="D38" t="s">
+        <v>128</v>
+      </c>
+      <c r="E38" t="s">
         <v>37</v>
       </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="V32" s="2">
-        <v>1</v>
-      </c>
-      <c r="X32" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z32" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>153</v>
-      </c>
-      <c r="B33" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="G38" s="2"/>
+      <c r="H38" t="s">
+        <v>6</v>
+      </c>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="X38" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z38" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>149</v>
+      </c>
+      <c r="B39" t="s">
+        <v>149</v>
+      </c>
+      <c r="C39" t="s">
         <v>28</v>
       </c>
-      <c r="D33" t="s">
-        <v>132</v>
-      </c>
-      <c r="E33" t="s">
-        <v>125</v>
-      </c>
-      <c r="V33" s="2">
-        <v>1</v>
-      </c>
-      <c r="X33" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z33" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>153</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="D39" t="s">
+        <v>128</v>
+      </c>
+      <c r="E39" t="s">
+        <v>150</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" t="s">
+        <v>6</v>
+      </c>
+      <c r="X39" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>149</v>
+      </c>
+      <c r="B40" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40" t="s">
+        <v>138</v>
+      </c>
+      <c r="D40" t="s">
+        <v>128</v>
+      </c>
+      <c r="E40" t="s">
+        <v>139</v>
+      </c>
+      <c r="F40" t="s">
+        <v>140</v>
+      </c>
+      <c r="G40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>history()</v>
+      </c>
+      <c r="X40" s="2"/>
+      <c r="Z40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB40" s="2"/>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>149</v>
+      </c>
+      <c r="B41" t="s">
         <v>141</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C41" t="s">
         <v>142</v>
       </c>
-      <c r="D34" t="s">
-        <v>132</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="D41" t="s">
+        <v>128</v>
+      </c>
+      <c r="E41" t="s">
         <v>143</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F41" t="s">
         <v>144</v>
       </c>
-      <c r="V34" s="2">
-        <v>1</v>
-      </c>
-      <c r="X34" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z34" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>153</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="G41" s="2"/>
+      <c r="H41" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>149</v>
+      </c>
+      <c r="B42" t="s">
         <v>145</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C42" t="s">
+        <v>142</v>
+      </c>
+      <c r="D42" t="s">
+        <v>128</v>
+      </c>
+      <c r="E42" t="s">
         <v>146</v>
       </c>
-      <c r="D35" t="s">
-        <v>132</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="F42" t="s">
         <v>147</v>
       </c>
-      <c r="F35" t="s">
-        <v>148</v>
-      </c>
-      <c r="X35" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>153</v>
-      </c>
-      <c r="B36" t="s">
-        <v>149</v>
-      </c>
-      <c r="C36" t="s">
-        <v>146</v>
-      </c>
-      <c r="D36" t="s">
-        <v>132</v>
-      </c>
-      <c r="E36" t="s">
-        <v>150</v>
-      </c>
-      <c r="F36" t="s">
-        <v>151</v>
-      </c>
-      <c r="X36" s="2">
+      <c r="G42" s="2"/>
+      <c r="H42" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z42" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1947,7 +2271,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B1" t="s">
         <v>26</v>
@@ -1973,7 +2297,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B1" t="s">
         <v>26</v>
@@ -1999,7 +2323,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B1" t="s">
         <v>26</v>
@@ -2025,7 +2349,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>26</v>
@@ -2051,7 +2375,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>26</v>
@@ -2069,7 +2393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0437A48-3006-3A4F-8E27-223B720E6D4E}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -2081,7 +2405,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B1" t="s">
         <v>26</v>
@@ -2092,90 +2416,90 @@
     </row>
     <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -2282,7 +2606,7 @@
         <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P4"/>
       <c r="Q4"/>
@@ -2317,7 +2641,7 @@
         <v>models.CharField(max_length=100)</v>
       </c>
       <c r="K5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P5"/>
       <c r="Q5"/>
@@ -2356,7 +2680,7 @@
         <v>models.EmailField(unique=True)</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P6"/>
       <c r="Q6"/>
@@ -2395,7 +2719,7 @@
         <v>models.CharField(max_length=100)</v>
       </c>
       <c r="K7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P7"/>
       <c r="Q7"/>
@@ -2434,7 +2758,7 @@
         <v>models.CharField(max_length=100)</v>
       </c>
       <c r="K8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P8"/>
       <c r="Q8"/>
@@ -2473,7 +2797,7 @@
         <v>models.ForeignKey(Organization,on_delete=models.CASCADE)</v>
       </c>
       <c r="K9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O9" t="s">
         <v>40</v>
@@ -2517,7 +2841,7 @@
         <v>models.CharField(max_length=200)</v>
       </c>
       <c r="K10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S10">
         <f t="shared" si="3"/>
@@ -2554,7 +2878,7 @@
         <v>models.CharField(max_length=100)</v>
       </c>
       <c r="K11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S11">
         <f t="shared" si="3"/>
@@ -2591,7 +2915,7 @@
         <v>models.CharField(max_length=100)</v>
       </c>
       <c r="K12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S12">
         <f t="shared" si="3"/>
@@ -2628,7 +2952,7 @@
         <v>models.ForeignKey(Employer,on_delete=models.CASCADE)</v>
       </c>
       <c r="K13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S13">
         <f>FIND("=",K13)</f>
@@ -2665,7 +2989,7 @@
         <v>models.ForeignKey(Organization,on_delete=models.CASCADE)</v>
       </c>
       <c r="K14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S14">
         <f t="shared" ref="S14:S24" si="11">FIND("=",K14)</f>
@@ -2702,7 +3026,7 @@
         <v>models.ForeignKey(Organization,on_delete=models.CASCADE)</v>
       </c>
       <c r="K15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S15">
         <f t="shared" si="11"/>
@@ -2998,57 +3322,57 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="E32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="5:11" x14ac:dyDescent="0.2">
@@ -3056,19 +3380,19 @@
         <v>42</v>
       </c>
       <c r="F43" t="s">
+        <v>72</v>
+      </c>
+      <c r="G43" t="s">
         <v>73</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>74</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>75</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>76</v>
-      </c>
-      <c r="J43" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="45" spans="5:11" x14ac:dyDescent="0.2">
@@ -3084,10 +3408,10 @@
         <v>45</v>
       </c>
       <c r="J46" t="s">
+        <v>77</v>
+      </c>
+      <c r="K46" t="s">
         <v>78</v>
-      </c>
-      <c r="K46" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
@@ -3123,17 +3447,17 @@
         <v>29</v>
       </c>
       <c r="B54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E55" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
@@ -3141,37 +3465,37 @@
         <v>42</v>
       </c>
       <c r="F57" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G57" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I57" t="s">
         <v>38</v>
       </c>
       <c r="J57" t="s">
+        <v>94</v>
+      </c>
+      <c r="K57" t="s">
         <v>95</v>
       </c>
-      <c r="K57" t="s">
+      <c r="L57" t="s">
         <v>96</v>
-      </c>
-      <c r="L57" t="s">
-        <v>97</v>
       </c>
       <c r="M57" t="s">
         <v>39</v>
       </c>
       <c r="N57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O57" t="s">
         <v>47</v>
       </c>
       <c r="P57" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
@@ -3187,7 +3511,7 @@
         <v>45</v>
       </c>
       <c r="J60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
@@ -3195,17 +3519,17 @@
         <v>29</v>
       </c>
       <c r="B62" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E64" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.2">
@@ -3213,19 +3537,19 @@
         <v>42</v>
       </c>
       <c r="F65" t="s">
+        <v>72</v>
+      </c>
+      <c r="G65" t="s">
         <v>73</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>74</v>
       </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
         <v>75</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>76</v>
-      </c>
-      <c r="J65" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.2">
@@ -3249,74 +3573,74 @@
         <v>29</v>
       </c>
       <c r="B70" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="E71" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="E72" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="E73" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G73" t="s">
         <v>42</v>
       </c>
       <c r="H73" t="s">
+        <v>103</v>
+      </c>
+      <c r="I73" t="s">
         <v>104</v>
       </c>
-      <c r="I73" t="s">
+      <c r="J73" t="s">
         <v>105</v>
       </c>
-      <c r="J73" t="s">
+      <c r="K73" t="s">
         <v>106</v>
-      </c>
-      <c r="K73" t="s">
-        <v>107</v>
       </c>
       <c r="L73" t="s">
         <v>36</v>
       </c>
       <c r="M73" t="s">
+        <v>107</v>
+      </c>
+      <c r="N73" t="s">
         <v>108</v>
-      </c>
-      <c r="N73" t="s">
-        <v>109</v>
       </c>
       <c r="O73" t="s">
         <v>53</v>
       </c>
       <c r="P73" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q73" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="R73" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="R73" s="4" t="s">
+      <c r="S73" t="s">
         <v>111</v>
       </c>
-      <c r="S73" t="s">
+      <c r="T73" t="s">
         <v>112</v>
-      </c>
-      <c r="T73" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="E74" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="E75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.2">
@@ -3324,31 +3648,31 @@
         <v>42</v>
       </c>
       <c r="F76" t="s">
+        <v>72</v>
+      </c>
+      <c r="G76" t="s">
         <v>73</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>74</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>75</v>
       </c>
-      <c r="I76" t="s">
-        <v>76</v>
-      </c>
       <c r="J76" t="s">
+        <v>114</v>
+      </c>
+      <c r="K76" t="s">
+        <v>75</v>
+      </c>
+      <c r="L76" t="s">
         <v>115</v>
       </c>
-      <c r="K76" t="s">
-        <v>76</v>
-      </c>
-      <c r="L76" t="s">
+      <c r="M76" t="s">
         <v>116</v>
       </c>
-      <c r="M76" t="s">
+      <c r="N76" t="s">
         <v>117</v>
-      </c>
-      <c r="N76" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.2">
@@ -3377,57 +3701,57 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E82" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E83" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E84" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E85" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E86" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E88" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E89" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E90" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E92" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
@@ -3435,19 +3759,19 @@
         <v>42</v>
       </c>
       <c r="F93" t="s">
+        <v>72</v>
+      </c>
+      <c r="G93" t="s">
         <v>73</v>
       </c>
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>74</v>
       </c>
-      <c r="H93" t="s">
+      <c r="I93" t="s">
         <v>75</v>
       </c>
-      <c r="I93" t="s">
+      <c r="J93" t="s">
         <v>76</v>
-      </c>
-      <c r="J93" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
@@ -3463,10 +3787,10 @@
         <v>45</v>
       </c>
       <c r="J96" t="s">
+        <v>77</v>
+      </c>
+      <c r="K96" t="s">
         <v>78</v>
-      </c>
-      <c r="K96" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
@@ -3474,57 +3798,57 @@
         <v>29</v>
       </c>
       <c r="B98" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E99" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E100" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E101" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E102" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E103" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E104" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E105" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E106" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E107" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E108" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
@@ -3532,19 +3856,19 @@
         <v>42</v>
       </c>
       <c r="F109" t="s">
+        <v>72</v>
+      </c>
+      <c r="G109" t="s">
         <v>73</v>
       </c>
-      <c r="G109" t="s">
+      <c r="H109" t="s">
         <v>74</v>
       </c>
-      <c r="H109" t="s">
+      <c r="I109" t="s">
         <v>75</v>
       </c>
-      <c r="I109" t="s">
+      <c r="J109" t="s">
         <v>76</v>
-      </c>
-      <c r="J109" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
@@ -3560,10 +3884,10 @@
         <v>45</v>
       </c>
       <c r="J112" t="s">
+        <v>77</v>
+      </c>
+      <c r="K112" t="s">
         <v>78</v>
-      </c>
-      <c r="K112" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3583,7 +3907,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>26</v>
@@ -3612,7 +3936,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B1" t="s">
         <v>26</v>
@@ -3645,7 +3969,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B1" t="s">
         <v>26</v>
@@ -3674,7 +3998,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B1" t="s">
         <v>26</v>

--- a/CRUDCreateCode/data/input/models/Organisation.xlsx
+++ b/CRUDCreateCode/data/input/models/Organisation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tkax/dev/aimonetize/Backend/DjangoBasic/CRUDCreateCode/data/input/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28BF48C-540A-5149-812F-60C164359FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115CD857-B450-4F47-9D5E-C6F35DC6E7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="760" windowWidth="23440" windowHeight="18880" xr2:uid="{43DD2820-FE61-F645-B31F-194723807C3A}"/>
+    <workbookView xWindow="4760" yWindow="1200" windowWidth="23440" windowHeight="18880" xr2:uid="{43DD2820-FE61-F645-B31F-194723807C3A}"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="161">
   <si>
     <t>Variable</t>
   </si>
@@ -519,16 +519,31 @@
     <t>models.ForeignKey('Employer',on_delete=models.CASCADE)</t>
   </si>
   <si>
-    <t>feker_function</t>
-  </si>
-  <si>
     <t>faker_type</t>
   </si>
   <si>
-    <t>username()</t>
-  </si>
-  <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>last_name()</t>
+  </si>
+  <si>
+    <t>random.randint(18, 80)</t>
+  </si>
+  <si>
+    <t>phone_number()</t>
+  </si>
+  <si>
+    <t>faker_function</t>
+  </si>
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t>user_name()</t>
+  </si>
+  <si>
+    <t>int</t>
   </si>
 </sst>
 </file>
@@ -908,7 +923,7 @@
   <dimension ref="A1:AB42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -942,10 +957,10 @@
         <v>25</v>
       </c>
       <c r="G1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H1" t="s">
         <v>152</v>
-      </c>
-      <c r="H1" t="s">
-        <v>153</v>
       </c>
       <c r="I1" t="s">
         <v>9</v>
@@ -1029,7 +1044,9 @@
         <f>B2&amp;"()"</f>
         <v>first_name()</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="X2" s="2">
         <v>1</v>
       </c>
@@ -1057,9 +1074,11 @@
       <c r="E3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="2" t="str">
-        <f t="shared" ref="G3:G40" si="0">B3&amp;"()"</f>
-        <v>surname()</v>
+      <c r="G3" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="T3" s="2"/>
       <c r="X3" s="2">
@@ -1088,9 +1107,11 @@
       <c r="E4" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>age()</v>
+      <c r="G4" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H4" t="s">
+        <v>160</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
@@ -1121,8 +1142,11 @@
         <v>63</v>
       </c>
       <c r="G5" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G3:G40" si="0">B5&amp;"()"</f>
         <v>email()</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="X5" s="2">
         <v>1</v>
@@ -1150,9 +1174,11 @@
       <c r="E6" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>phone()</v>
+      <c r="G6" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="X6" s="2">
         <v>1</v>
@@ -1184,6 +1210,9 @@
         <f t="shared" si="0"/>
         <v>address()</v>
       </c>
+      <c r="H7" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="Q7" s="2"/>
       <c r="X7" s="2">
         <v>1</v>
@@ -1211,10 +1240,7 @@
       <c r="E8" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>department()</v>
-      </c>
+      <c r="G8" s="2"/>
       <c r="H8" t="s">
         <v>6</v>
       </c>
@@ -1246,10 +1272,7 @@
       <c r="E9" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>role()</v>
-      </c>
+      <c r="G9" s="2"/>
       <c r="H9" t="s">
         <v>6</v>
       </c>
@@ -1377,7 +1400,7 @@
       </c>
       <c r="G13" s="2"/>
       <c r="H13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Z13" s="2">
         <v>1</v>
@@ -1404,7 +1427,7 @@
       </c>
       <c r="G14" s="2"/>
       <c r="H14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Z14" s="2">
         <v>1</v>
@@ -1427,7 +1450,10 @@
         <v>124</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="V15" s="2"/>
       <c r="X15" s="2">
@@ -1522,6 +1548,9 @@
         <f t="shared" si="0"/>
         <v>name()</v>
       </c>
+      <c r="H18" t="s">
+        <v>158</v>
+      </c>
       <c r="X18" s="2">
         <v>1</v>
       </c>
@@ -1552,6 +1581,9 @@
         <f t="shared" si="0"/>
         <v>address()</v>
       </c>
+      <c r="H19" t="s">
+        <v>158</v>
+      </c>
       <c r="X19" s="2">
         <v>1</v>
       </c>
@@ -1583,7 +1615,7 @@
       </c>
       <c r="G20" s="2"/>
       <c r="H20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Z20" s="2">
         <v>1</v>
@@ -1610,7 +1642,7 @@
       </c>
       <c r="G21" s="2"/>
       <c r="H21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Z21" s="2">
         <v>1</v>
@@ -1669,6 +1701,9 @@
         <f t="shared" si="0"/>
         <v>first_name()</v>
       </c>
+      <c r="H23" t="s">
+        <v>158</v>
+      </c>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
       <c r="X23" s="2">
@@ -1697,9 +1732,11 @@
       <c r="E24" t="s">
         <v>59</v>
       </c>
-      <c r="G24" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>surname()</v>
+      <c r="G24" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H24" t="s">
+        <v>158</v>
       </c>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
@@ -1729,9 +1766,11 @@
       <c r="E25" t="s">
         <v>56</v>
       </c>
-      <c r="G25" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>age()</v>
+      <c r="G25" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H25" t="s">
+        <v>160</v>
       </c>
       <c r="X25" s="2">
         <v>1</v>
@@ -1763,6 +1802,9 @@
         <f t="shared" si="0"/>
         <v>email()</v>
       </c>
+      <c r="H26" t="s">
+        <v>158</v>
+      </c>
       <c r="X26" s="2">
         <v>1</v>
       </c>
@@ -1789,9 +1831,11 @@
       <c r="E27" t="s">
         <v>65</v>
       </c>
-      <c r="G27" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>phone()</v>
+      <c r="G27" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H27" t="s">
+        <v>158</v>
       </c>
       <c r="X27" s="2">
         <v>1</v>
@@ -1823,6 +1867,9 @@
         <f t="shared" si="0"/>
         <v>address()</v>
       </c>
+      <c r="H28" t="s">
+        <v>158</v>
+      </c>
       <c r="X28" s="2">
         <v>1</v>
       </c>
@@ -1879,10 +1926,7 @@
       <c r="E30" t="s">
         <v>37</v>
       </c>
-      <c r="G30" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>role()</v>
-      </c>
+      <c r="G30" s="2"/>
       <c r="H30" t="s">
         <v>6</v>
       </c>
@@ -1912,10 +1956,7 @@
       <c r="E31" t="s">
         <v>151</v>
       </c>
-      <c r="G31" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>employer()</v>
-      </c>
+      <c r="G31" s="2"/>
       <c r="H31" t="s">
         <v>6</v>
       </c>
@@ -1950,7 +1991,7 @@
       </c>
       <c r="G32" s="2"/>
       <c r="H32" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Z32" s="2">
         <v>1</v>
@@ -1977,7 +2018,7 @@
       </c>
       <c r="G33" s="2"/>
       <c r="H33" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Z33" s="2">
         <v>1</v>
@@ -1999,10 +2040,7 @@
       <c r="E34" t="s">
         <v>150</v>
       </c>
-      <c r="G34" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Organisation()</v>
-      </c>
+      <c r="G34" s="2"/>
       <c r="H34" t="s">
         <v>6</v>
       </c>
@@ -2036,6 +2074,9 @@
         <f t="shared" si="0"/>
         <v>name()</v>
       </c>
+      <c r="H35" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="X35" s="2">
         <v>1</v>
       </c>
@@ -2066,6 +2107,9 @@
         <f t="shared" si="0"/>
         <v>email()</v>
       </c>
+      <c r="H36" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="X36" s="2">
         <v>1</v>
       </c>
@@ -2189,9 +2233,9 @@
       <c r="F40" t="s">
         <v>140</v>
       </c>
-      <c r="G40" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>history()</v>
+      <c r="G40" s="2"/>
+      <c r="H40" t="s">
+        <v>6</v>
       </c>
       <c r="X40" s="2"/>
       <c r="Z40" s="2">
@@ -2220,7 +2264,7 @@
       </c>
       <c r="G41" s="2"/>
       <c r="H41" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Z41" s="2">
         <v>1</v>
@@ -2247,7 +2291,7 @@
       </c>
       <c r="G42" s="2"/>
       <c r="H42" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Z42" s="2">
         <v>1</v>
